--- a/data/trans_bre/P14_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14_1-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,12 +581,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>11,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>57,2%</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 9,04</t>
+          <t>1,79; 15,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 15,77</t>
+          <t>-9,91; 28,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-45,49; 117,64</t>
+          <t>-34,88; 308,73</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,45%</t>
+          <t>107,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>133,3%</t>
         </is>
       </c>
     </row>
@@ -669,12 +669,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 5,05</t>
+          <t>-3,48; 9,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 15,94</t>
+          <t>-1,78; 26,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 219,2</t>
+          <t>-24,58; 732,79</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-10,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,8%</t>
+          <t>43,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,09%</t>
+          <t>-33,06%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 5,86</t>
+          <t>-6,01; 6,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 7,43</t>
+          <t>-26,2; 4,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-71,03; 669,88</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-48,05; 42,88</t>
+          <t>-63,39; 19,18</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,45%</t>
+          <t>28,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>19,66%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,01</t>
+          <t>-4,04; 5,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 11,48</t>
+          <t>-8,04; 14,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-90,11; 343,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 91,37</t>
+          <t>-36,27; 139,41</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>65,39%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>39,63%</t>
+          <t>24,33%</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 3,51</t>
+          <t>-3,69; 6,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 15,57</t>
+          <t>-10,08; 17,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 161,62</t>
+          <t>-44,21; 192,27</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>312,54%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-30,23%</t>
+          <t>-14,0%</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 17,27</t>
+          <t>0,0; 12,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 5,37</t>
+          <t>-19,4; 12,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-76,13; 89,2</t>
+          <t>-85,58; 282,46</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>58,44%</t>
+          <t>119,54%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>17,09%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,49</t>
+          <t>-0,34; 4,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 6,07</t>
+          <t>-3,32; 8,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 252,39</t>
+          <t>-19,05; 516,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 39,93</t>
+          <t>-15,44; 58,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14_1-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,121 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,4</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,1</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>57,2%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.987320892074629</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.50423714932846</v>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.5838073685362025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,79; 15,49</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,91; 28,42</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-34,88; 308,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.682004541017248</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.45338801857198</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="n">
+        <v>-0.3797611306107369</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.39186704627525</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>29.51551936519495</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>3.283293341957132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,53</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>107,14%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>133,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 9,45</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 26,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-24,58; 732,79</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.778399407536636</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.7956193790182</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.231779476996812</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.180698415080996</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-10,23</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>43,79%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-33,06%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.383364298043471</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.741931969670718</v>
+      </c>
+      <c r="E8" s="6" t="inlineStr"/>
+      <c r="F8" s="6" t="n">
+        <v>-0.2687236340979509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,01; 6,81</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-26,2; 4,09</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-63,39; 19,18</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.752501841562847</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>25.15309271095332</v>
+      </c>
+      <c r="E9" s="6" t="inlineStr"/>
+      <c r="F9" s="6" t="n">
+        <v>6.757369835155489</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +710,121 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>28,24%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>19,66%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.696771089971882</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-8.397759382327216</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.5510866857917123</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.2862966297912889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,04; 5,63</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-8,04; 14,95</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-36,27; 139,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.97111778444499</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-24.67856742581647</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.6229387786744384</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.218473964676893</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.335608538419353</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="n">
+        <v>0.2675440054551146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,07</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>17,11%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>24,33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 6,31</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,08; 17,96</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-44,21; 192,27</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.5443269281719451</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.924759397719411</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.2456196637431045</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.2965212916690628</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,99</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-14,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.925973755564076</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.13659302870134</v>
+      </c>
+      <c r="E14" s="6" t="inlineStr"/>
+      <c r="F14" s="6" t="n">
+        <v>-0.3398542558203277</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,26</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-19,4; 12,59</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-85,58; 282,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.693883926151508</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.37462035981802</v>
+      </c>
+      <c r="E15" s="6" t="inlineStr"/>
+      <c r="F15" s="6" t="n">
+        <v>1.535682558270704</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +832,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>119,54%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>17,09%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.1188650908732179</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>5.251920105612268</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.06932008844111742</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.3178940603780532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 4,38</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 8,69</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-19,05; 516,87</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-15,44; 58,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-3.751924429918108</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-9.471937306592974</v>
+      </c>
+      <c r="E17" s="6" t="inlineStr"/>
+      <c r="F17" s="6" t="n">
+        <v>-0.4164775215311252</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>5.602301114136783</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>19.39991762678083</v>
+      </c>
+      <c r="E18" s="6" t="inlineStr"/>
+      <c r="F18" s="6" t="n">
+        <v>2.06394787149683</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>3.297098115839194</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-2.641445271889804</v>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.1803078377144619</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-20.29926482258309</v>
+      </c>
+      <c r="E20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="n">
+        <v>-0.8700621441669819</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>15.46670459000571</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>12.25853086134991</v>
+      </c>
+      <c r="E21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="n">
+        <v>2.729485000353522</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.133991558586314</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.619992174965545</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>1.317668374153718</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.2033674749570253</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.05685958171182252</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.038540414812143</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.1469109981449295</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.1471907795775545</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.495297994533154</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>9.492187428851414</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>5.68388147870536</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.6170535306042048</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1016,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
